--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -701,4 +702,520 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DSKE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TS </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKC </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -9,6 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-01" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1218,4 +1222,1808 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DSKE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FE </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TS </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FOE </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXST </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FE </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CATY </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DB </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GD </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLL </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORI </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TS </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APA </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RJF </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -13,6 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-04" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-07" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-09" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-10" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3026,4 +3028,1206 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DB </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NLOK </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXDT </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NMIH </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZION </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ING </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THG </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFB </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WY </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLF </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CATY </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TIMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NLOK </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZETA </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGH </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DB </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQH </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXST </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIDD </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAX </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WY </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBF </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MS </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENLC </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -15,6 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-09" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -444,6 +448,2190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZETA </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BYD </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FOXA </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQH </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OMC </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZION </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGH </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEF </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KB </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DB </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NLOK </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RXDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENLC </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTSH </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RJF </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EWBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PACW </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GL </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TIMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAK </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LMT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENB </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLVM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEF </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RES </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TS </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENLC </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MET </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KB </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RXDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EWBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCOR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RES </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CTRA </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GDEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAK </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPM </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPA </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RES </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENX </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORI </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -19,6 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-14" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-17" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-18" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2632,6 +2634,1028 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> H </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GDEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OBE </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHT </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCOR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPM </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLT </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NMIH </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWK </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HST </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENLC </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TS </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHL </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENX </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMPQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPA </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLDT </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCH </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HESM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USAK </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GPK </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFI </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCOR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CINF </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HST </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATI </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PTEN </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPA </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENX </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAT </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2022-02.xlsx
+++ b/Data/Screeners/NH2022-02.xlsx
@@ -21,6 +21,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-17" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-18" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-21" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-23" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-24" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-25" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-28" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3656,6 +3661,1240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GD </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PM </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTOR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENX </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HTGC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALM </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIV </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PVL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MIRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFI </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGLE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHT </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MVO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIST </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MVO </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OBE </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PVL </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LMT </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AR </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GFI </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HESM </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECOL </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3914,6 +5153,552 @@
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNTH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CWK </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZETA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LXU </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CENX </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DSKE </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUAD </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LMT </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RS </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GD </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SPTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TGA </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCX </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ORCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNVR </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOC </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NUE </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHKP </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATI </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RES </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
         </is>
       </c>
     </row>
